--- a/output/SCAN000702-2/match_result.xlsx
+++ b/output/SCAN000702-2/match_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>match_rank</t>
   </si>
@@ -43,97 +43,97 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.8691</t>
+    <t>5.3836</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.0652</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.9580</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.8986</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.8173</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.8166</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.7247</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.8009</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.7094</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>3.6497</t>
+    <t>4.6165</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.3679</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.3110</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.5147</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.4200</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>3.3302</t>
+    <t>4.2713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.2465</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.3113</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>3.2582</t>
+    <t>4.1338</t>
   </si>
   <si>
     <t>323</t>
@@ -142,79 +142,76 @@
     <t>12</t>
   </si>
   <si>
-    <t>3.2519</t>
-  </si>
-  <si>
-    <t>380</t>
+    <t>4.0863</t>
+  </si>
+  <si>
+    <t>372</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>3.2471</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>3.9945</t>
+  </si>
+  <si>
+    <t>143</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>3.1975</t>
+    <t>3.9077</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.8181</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.8089</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.1225</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.1043</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>3.1034</t>
-  </si>
-  <si>
-    <t>247</t>
+    <t>3.7783</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.1027</t>
+    <t>3.7716</t>
+  </si>
+  <si>
+    <t>288</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.0507</t>
-  </si>
-  <si>
-    <t>350</t>
+    <t>3.7547</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.0481</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>3.7518</t>
   </si>
 </sst>
 </file>
@@ -423,13 +420,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>335168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>1878498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="505414"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="525668"/>
+          <a:ext cx="2381250" cy="1543331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -515,7 +512,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -553,7 +550,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,7 +588,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -613,13 +610,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>240270</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2020845</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,15 +626,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="2964420"/>
-          <a:ext cx="2381250" cy="1780574"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="2769312"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,7 +702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -743,7 +740,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -781,7 +778,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -803,13 +800,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>240270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>2020845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -819,15 +816,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="5376084"/>
-          <a:ext cx="2381250" cy="2085539"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="5498070"/>
+          <a:ext cx="2381250" cy="1780574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,7 +892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -933,7 +930,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -971,7 +968,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -993,13 +990,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>335168</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1878498</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="8126618"/>
-          <a:ext cx="2381250" cy="1543331"/>
+          <a:off x="11334750" y="8106364"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,7 +1082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1123,7 +1120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1161,7 +1158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,13 +1180,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>118284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2203824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,15 +1196,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="10370262"/>
-          <a:ext cx="2381250" cy="2268346"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="10443384"/>
+          <a:ext cx="2381250" cy="2085539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,7 +1272,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,7 +1310,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1351,7 +1348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1373,13 +1370,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,15 +1386,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13054899"/>
-          <a:ext cx="2381250" cy="1890877"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="13369066"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1462,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +1500,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +1538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1576,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1655,7 +1652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1750,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>302465</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1927552</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,15 +1766,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="18228515"/>
-          <a:ext cx="2381250" cy="1625087"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="18122199"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1880,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1918,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1947,7 +1944,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1959,7 +1956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1967,7 +1964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="20459700"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2032,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2108,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2134,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1969539</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2149,7 +2146,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="1969539" cy="2381250"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2222,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2339,7 +2336,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +2412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,13 +2510,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1258986</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,15 +2526,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="28570966"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="28060650"/>
+          <a:ext cx="1258986" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2602,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2678,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2707,7 +2704,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>1568537</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2719,7 +2716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2727,7 +2724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="30594300"/>
-          <a:ext cx="1665672" cy="2381250"/>
+          <a:ext cx="1568537" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2893,13 +2890,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1529452</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2161442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,15 +2906,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33127950"/>
-          <a:ext cx="1529452" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33274488"/>
+          <a:ext cx="2381250" cy="2014904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3020,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3058,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3083,13 +3080,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2143932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +3103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="35661600"/>
-          <a:ext cx="2083020" cy="2381250"/>
+          <a:off x="11334750" y="35819812"/>
+          <a:ext cx="2381250" cy="1985720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,7 +3172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,7 +3210,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3273,13 +3270,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>282126</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1529452</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1958060</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3289,15 +3286,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="38477376"/>
-          <a:ext cx="2381250" cy="1675934"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="38195250"/>
+          <a:ext cx="1529452" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,7 +3362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3403,7 +3400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3463,13 +3460,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3479,15 +3476,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="40810543"/>
-          <a:ext cx="2381250" cy="2177143"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="40728900"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3593,7 +3590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3650,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2161442</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3669,15 +3666,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="43409088"/>
-          <a:ext cx="2381250" cy="2014904"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="43262550"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,7 +3742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3780,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3847,7 +3844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1910704</xdr:colOff>
+      <xdr:colOff>2205296</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3859,7 +3856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3867,7 +3864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="1910704" cy="2381250"/>
+          <a:ext cx="2205296" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4033,13 +4030,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2205296</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,15 +4046,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48329850"/>
-          <a:ext cx="2205296" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48816342"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4547,51 +4544,51 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="200" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="200" customHeight="1">
@@ -4613,7 +4610,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_result.xlsx
+++ b/output/SCAN000702-2/match_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>match_rank</t>
   </si>
@@ -43,7 +43,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.3836</t>
+    <t>5.2343</t>
   </si>
   <si>
     <t>115</t>
@@ -52,7 +52,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>5.0652</t>
+    <t>5.1209</t>
   </si>
   <si>
     <t>225</t>
@@ -61,7 +61,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>4.9580</t>
+    <t>4.9153</t>
   </si>
   <si>
     <t>114</t>
@@ -70,148 +70,151 @@
     <t>4</t>
   </si>
   <si>
-    <t>4.8986</t>
+    <t>4.6808</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.5382</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.4855</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.3104</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.2982</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.7247</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4.6165</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.2108</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.1546</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4.3679</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.3110</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.2713</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.2465</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.1232</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4.0879</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4.1338</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.9362</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.9270</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.9140</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.9119</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4.0863</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.9945</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.9077</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.8181</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.8089</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.8926</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.8054</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.7783</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.7716</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.7547</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>3.7836</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.7518</t>
+    <t>3.7082</t>
+  </si>
+  <si>
+    <t>312</t>
   </si>
 </sst>
 </file>
@@ -268,13 +271,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,8 +294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="407450"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="381000"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,13 +385,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,8 +408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="406232"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="381000"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,13 +461,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -481,8 +484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="2941100"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="2914650"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,13 +575,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -595,8 +598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="2939882"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="2914650"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,13 +651,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,8 +674,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="5474750"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="5448300"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,7 +705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -740,7 +743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -762,13 +765,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -778,15 +781,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="5473532"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="5448300"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,7 +819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -838,13 +841,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -861,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="8008400"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="7981950"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,7 +895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -930,7 +933,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -952,13 +955,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,15 +971,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="8007182"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="7981950"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,13 +993,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1258986</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="8106364"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="7791450"/>
+          <a:ext cx="1258986" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,13 +1031,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1051,8 +1054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="10542050"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="10515600"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,7 +1085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1120,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1142,13 +1145,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1158,15 +1161,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="10540832"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="10515600"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,13 +1183,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,15 +1199,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="10443384"/>
-          <a:ext cx="2381250" cy="2085539"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="10325100"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1218,13 +1221,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1241,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="13075700"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="13049250"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1310,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1332,13 +1335,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1348,15 +1351,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="13074482"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="13049250"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>118284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2203824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,15 +1389,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13369066"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="12977034"/>
+          <a:ext cx="2381250" cy="2085539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,13 +1411,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1431,8 +1434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="15609350"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="15582900"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,7 +1465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1500,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1522,13 +1525,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,15 +1541,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="15608132"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="15582900"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,13 +1563,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1576,15 +1579,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="15392400"/>
-          <a:ext cx="1920827" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="15588549"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,13 +1601,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1621,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="18143000"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="18116550"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,7 +1655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1690,7 +1693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1712,13 +1715,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1728,15 +1731,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="18141782"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="18116550"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1766,15 +1769,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="18122199"/>
-          <a:ext cx="2381250" cy="1890877"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="18240964"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1788,13 +1791,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,8 +1814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="20676650"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="20650200"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1880,7 +1883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1902,13 +1905,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1918,15 +1921,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="20675432"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="20650200"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,7 +1959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1978,13 +1981,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2001,8 +2004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="23210300"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="23183850"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2032,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2070,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2092,13 +2095,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2108,15 +2111,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="23209082"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="23183850"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2130,13 +2133,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2153,8 +2156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="22993350"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:off x="11334750" y="23503666"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2168,13 +2171,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,8 +2194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="25743950"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="25717500"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2282,13 +2285,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,8 +2308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="25742732"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="25717500"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,13 +2323,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1568537</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2343,8 +2346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="25976239"/>
-          <a:ext cx="2381250" cy="1258153"/>
+          <a:off x="11334750" y="25527000"/>
+          <a:ext cx="1568537" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,13 +2361,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2381,8 +2384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="28277600"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="28251150"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2472,13 +2475,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2495,8 +2498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="28276382"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="28251150"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,7 +2517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1258986</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2534,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="28060650"/>
-          <a:ext cx="1258986" cy="2381250"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,13 +2551,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2571,8 +2574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="30811250"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="30784800"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2662,13 +2665,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2685,8 +2688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="30810032"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="30784800"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1568537</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2723,8 +2726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="30594300"/>
-          <a:ext cx="1568537" cy="2381250"/>
+          <a:off x="11334750" y="31080792"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,13 +2741,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2761,8 +2764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="33344900"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="33318450"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,13 +2855,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2875,8 +2878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="33343682"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="33318450"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2890,13 +2893,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:rowOff>158212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2161442</xdr:rowOff>
+      <xdr:rowOff>2143932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2913,8 +2916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="33274488"/>
-          <a:ext cx="2381250" cy="2014904"/>
+          <a:off x="11334750" y="33286162"/>
+          <a:ext cx="2381250" cy="1985720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,13 +2931,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2951,8 +2954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="35878550"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="35852100"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3042,13 +3045,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3065,8 +3068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="35877332"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="35852100"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3080,13 +3083,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>158212</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2143932</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3103,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="35819812"/>
-          <a:ext cx="2381250" cy="1985720"/>
+          <a:off x="11334750" y="35661600"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,13 +3121,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3141,8 +3144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="38412200"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="38385750"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3232,13 +3235,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3255,8 +3258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="38410982"/>
-          <a:ext cx="1905000" cy="1841921"/>
+          <a:off x="8953500" y="38385750"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3270,13 +3273,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1529452</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3293,8 +3296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="38195250"/>
-          <a:ext cx="1529452" cy="2381250"/>
+          <a:off x="11334750" y="38644489"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3308,13 +3311,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3331,8 +3334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="40945850"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="40919400"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,7 +3365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3400,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3422,13 +3425,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3438,15 +3441,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="40944632"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="40919400"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3464,7 +3467,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2205296</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3476,7 +3479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3484,7 +3487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="40728900"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:ext cx="2205296" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3498,13 +3501,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3521,8 +3524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="43479500"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="43453050"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3590,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3612,13 +3615,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3628,15 +3631,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="43478282"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="43453050"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3654,7 +3657,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>1529452</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3666,7 +3669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3674,7 +3677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="43262550"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:ext cx="1529452" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3688,13 +3691,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3711,8 +3714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="46013150"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="45986700"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3742,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3780,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3802,13 +3805,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3818,15 +3821,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="46011932"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="45986700"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3844,7 +3847,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2205296</xdr:colOff>
+      <xdr:colOff>1545000</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3856,7 +3859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3864,7 +3867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="2205296" cy="2381250"/>
+          <a:ext cx="1545000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3878,13 +3881,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>216950</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1758706</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2055826</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3901,8 +3904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="48546800"/>
-          <a:ext cx="1905000" cy="1838876"/>
+          <a:off x="3143250" y="48520350"/>
+          <a:ext cx="1758706" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3932,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3970,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3992,13 +3995,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>215732</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1752600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2057652</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4008,15 +4011,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="48545582"/>
-          <a:ext cx="1905000" cy="1841921"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="48520350"/>
+          <a:ext cx="1752600" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,13 +4033,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1969539</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4046,15 +4049,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48816342"/>
-          <a:ext cx="2381250" cy="1165020"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48329850"/>
+          <a:ext cx="1969539" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4533,18 +4536,18 @@
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">
@@ -4610,7 +4613,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_result.xlsx
+++ b/output/SCAN000702-2/match_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>match_rank</t>
   </si>
@@ -43,7 +43,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.2343</t>
+    <t>5.3134</t>
   </si>
   <si>
     <t>115</t>
@@ -52,169 +52,172 @@
     <t>2</t>
   </si>
   <si>
-    <t>5.1209</t>
+    <t>4.5037</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.1980</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4.9153</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>4.6808</t>
+    <t>4.1096</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.0601</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8940</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.8809</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.7765</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.7621</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.7362</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.6708</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.6657</t>
   </si>
   <si>
     <t>372</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.5382</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4.4855</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4.3104</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.2982</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.2108</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.1546</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.6392</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.6004</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4.1232</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4.0879</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.9362</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.9270</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.5311</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.5023</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.9140</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.9119</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>3.8926</t>
+    <t>3.4565</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.4520</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.4352</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.8054</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.7836</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3.4319</t>
   </si>
   <si>
     <t>338</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.7082</t>
-  </si>
-  <si>
-    <t>312</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -553,7 +556,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,7 +594,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -613,13 +616,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>240270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2020845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,15 +632,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="2769312"/>
-          <a:ext cx="2381250" cy="2268346"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="2964420"/>
+          <a:ext cx="2381250" cy="1780574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,7 +708,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -743,7 +746,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -781,7 +784,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -803,13 +806,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>240270</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2020845</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="5498070"/>
-          <a:ext cx="2381250" cy="1780574"/>
+          <a:off x="11334750" y="5302962"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,13 +996,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1258986</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="7791450"/>
-          <a:ext cx="1258986" cy="2381250"/>
+          <a:off x="11334750" y="7987599"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,13 +1376,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1396,8 +1399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="12977034"/>
-          <a:ext cx="2381250" cy="2085539"/>
+          <a:off x="11334750" y="13173664"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,13 +1566,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="15588549"/>
-          <a:ext cx="2381250" cy="1890877"/>
+          <a:off x="11334750" y="15392400"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,7 +1658,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1756,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,15 +1772,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="18240964"/>
-          <a:ext cx="2381250" cy="1593964"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="17926050"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1848,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1886,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1924,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1943,13 +1946,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,15 +1962,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="20459700"/>
-          <a:ext cx="1665672" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="20908939"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2076,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2114,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2133,13 +2136,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>118284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2203824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2149,15 +2152,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="23503666"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="23111634"/>
+          <a:ext cx="2381250" cy="2085539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2266,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2339,7 +2342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +2418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2456,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2517,7 +2520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>1258986</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2529,7 +2532,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2537,7 +2540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="28060650"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:ext cx="1258986" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2646,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2703,13 +2706,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>224266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>2044851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2722,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="31080792"/>
-          <a:ext cx="2381250" cy="1165020"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30818566"/>
+          <a:ext cx="2381250" cy="1820585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2798,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2874,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2893,13 +2896,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>158212</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2143932</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,15 +2912,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33286162"/>
-          <a:ext cx="2381250" cy="1985720"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33638266"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3026,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3064,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3099,7 +3102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3175,7 +3178,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,7 +3216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3254,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3273,13 +3276,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>158212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2143932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3289,15 +3292,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="38644489"/>
-          <a:ext cx="2381250" cy="1258153"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="38353462"/>
+          <a:ext cx="2381250" cy="1985720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,7 +3368,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3403,7 +3406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3467,7 +3470,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2205296</xdr:colOff>
+      <xdr:colOff>1969539</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3479,7 +3482,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3487,7 +3490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="40728900"/>
-          <a:ext cx="2205296" cy="2381250"/>
+          <a:ext cx="1969539" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3593,7 +3596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3634,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3669,7 +3672,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3745,7 +3748,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3786,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3847,7 +3850,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>2205296</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3859,7 +3862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3867,7 +3870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="1545000" cy="2381250"/>
+          <a:ext cx="2205296" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3938,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4014,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4037,7 +4040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1969539</xdr:colOff>
+      <xdr:colOff>1545000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -4049,7 +4052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4057,7 +4060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="48329850"/>
-          <a:ext cx="1969539" cy="2381250"/>
+          <a:ext cx="1545000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4536,84 +4539,84 @@
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="200" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="200" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="200" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/output/SCAN000702-2/match_result.xlsx
+++ b/output/SCAN000702-2/match_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>match_rank</t>
   </si>
@@ -43,7 +43,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5.3134</t>
+    <t>5.4078</t>
   </si>
   <si>
     <t>115</t>
@@ -52,172 +52,169 @@
     <t>2</t>
   </si>
   <si>
-    <t>4.5037</t>
+    <t>5.1874</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.9747</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.9330</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.9111</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.6329</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.6233</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4.1980</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.6135</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.4840</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.1096</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.0601</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.4665</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.4507</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4.4458</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4.3700</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4.3539</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4.3504</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4.3170</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4.3135</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8940</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.8809</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.7765</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7621</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.7362</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.6708</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.6657</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.6392</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.6004</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.5311</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.5023</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.4565</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.4520</t>
+    <t>4.2931</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4.2717</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4.2512</t>
   </si>
   <si>
     <t>172</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.4352</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.4319</t>
-  </si>
-  <si>
-    <t>338</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -556,7 +553,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -594,7 +591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -616,13 +613,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>240270</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2020845</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -632,15 +629,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="2964420"/>
-          <a:ext cx="2381250" cy="1780574"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="2920299"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,7 +705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -784,7 +781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -806,13 +803,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -822,15 +819,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="5302962"/>
-          <a:ext cx="2381250" cy="2268346"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="5257800"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,7 +895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -936,7 +933,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -974,7 +971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,13 +993,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1568537</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1012,15 +1009,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="7987599"/>
-          <a:ext cx="2381250" cy="1890877"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="7791450"/>
+          <a:ext cx="1568537" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1088,7 +1085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1126,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1164,7 +1161,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1186,13 +1183,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1202,15 +1199,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="10325100"/>
-          <a:ext cx="1920827" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="10640014"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1316,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1354,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1376,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1258986</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1392,15 +1389,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13173664"/>
-          <a:ext cx="2381250" cy="1593964"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="12858750"/>
+          <a:ext cx="1258986" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,7 +1465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1506,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1544,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1566,13 +1563,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>240270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2020845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,8 +1586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="15392400"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:off x="11334750" y="15632670"/>
+          <a:ext cx="2381250" cy="1780574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1760,7 +1757,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1780,7 +1777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="17926050"/>
-          <a:ext cx="1665672" cy="2381250"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,13 +1943,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1969,8 +1966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="20908939"/>
-          <a:ext cx="2381250" cy="1258153"/>
+          <a:off x="11334750" y="20504862"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,13 +2133,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>224266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>2044851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2159,8 +2156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="23111634"/>
-          <a:ext cx="2381250" cy="2085539"/>
+          <a:off x="11334750" y="23217616"/>
+          <a:ext cx="2381250" cy="1820585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2266,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2304,7 +2301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2326,13 +2323,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>118284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1568537</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2203824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,15 +2339,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="25527000"/>
-          <a:ext cx="1568537" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="25645284"/>
+          <a:ext cx="2381250" cy="2085539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2456,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2494,7 +2491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2520,7 +2517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1258986</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2532,7 +2529,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2540,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="28060650"/>
-          <a:ext cx="1258986" cy="2381250"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2608,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2646,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2684,7 +2681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2706,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>224266</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1969539</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2044851</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2722,15 +2719,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30818566"/>
-          <a:ext cx="2381250" cy="1820585"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30594300"/>
+          <a:ext cx="1969539" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2798,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2836,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2874,7 +2871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2896,13 +2893,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2158588</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2912,15 +2909,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33638266"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33127950"/>
+          <a:ext cx="2158588" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,7 +2985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3026,7 +3023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3064,7 +3061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3086,13 +3083,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3102,15 +3099,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="35661600"/>
-          <a:ext cx="2057148" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="36171916"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3178,7 +3175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3216,7 +3213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3254,7 +3251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3276,13 +3273,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>158212</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1496144</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2143932</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3292,15 +3289,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="38353462"/>
-          <a:ext cx="2381250" cy="1985720"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="38195250"/>
+          <a:ext cx="1496144" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3368,7 +3365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3406,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3444,7 +3441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3470,7 +3467,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1969539</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3482,7 +3479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3490,7 +3487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="40728900"/>
-          <a:ext cx="1969539" cy="2381250"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3558,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3596,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3634,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3660,7 +3657,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1529452</xdr:colOff>
+      <xdr:colOff>2205296</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3672,7 +3669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3680,7 +3677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="43262550"/>
-          <a:ext cx="1529452" cy="2381250"/>
+          <a:ext cx="2205296" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3748,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3786,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3824,7 +3821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3850,7 +3847,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2205296</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3862,7 +3859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3870,7 +3867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="2205296" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3938,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3976,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4014,7 +4011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4040,7 +4037,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>1529452</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -4052,7 +4049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4060,7 +4057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="48329850"/>
-          <a:ext cx="1545000" cy="2381250"/>
+          <a:ext cx="1529452" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4572,51 +4569,51 @@
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="200" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="200" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
